--- a/sputnik/personal/cel/cel87.xlsx
+++ b/sputnik/personal/cel/cel87.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Оплачено</t>
   </si>
@@ -162,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -203,6 +203,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -513,7 +514,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -589,9 +590,15 @@
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="13"/>
+      <c r="A7" s="18">
+        <v>43952</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1000</v>
+      </c>
       <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/cel/cel87.xlsx
+++ b/sputnik/personal/cel/cel87.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,6 +40,18 @@
   </si>
   <si>
     <t>Начислен целевой взнос на приобретение мини трактора</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на ремонт дорог на территории СНТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оплачен целевой взнос на освещение центральной дороги </t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на ремонт общей подъездной дороги</t>
+  </si>
+  <si>
+    <t>Оплачен целевой взнос на приобретение мини трактора</t>
   </si>
 </sst>
 </file>
@@ -162,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -193,7 +205,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -514,7 +525,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -542,7 +553,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>43466</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -554,7 +565,7 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15">
+      <c r="A4" s="14">
         <v>43466</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -566,7 +577,7 @@
       <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>43586</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -578,7 +589,7 @@
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>43586</v>
       </c>
       <c r="B6" s="10" t="s">
@@ -590,7 +601,7 @@
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18">
+      <c r="A7" s="17">
         <v>43952</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -602,26 +613,64 @@
       <c r="D7" s="13"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="17">
+        <v>44305</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
+      <c r="D8" s="6">
+        <v>500</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="A9" s="17">
+        <v>44305</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="6">
+        <v>200</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="A10" s="17">
+        <v>44305</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="7">
+        <v>431</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="A11" s="17">
+        <v>44305</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="12">
+        <v>1449</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="A12" s="17">
+        <v>44305</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13">
+        <v>1000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/cel/cel87.xlsx
+++ b/sputnik/personal/cel/cel87.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Оплачено</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Оплачен целевой взнос на приобретение мини трактора</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на ремонт дорог на территории СНТ_2021</t>
+  </si>
+  <si>
+    <t>Начислен целевой взнос на реконструкцию электросети СНТ 1 этап</t>
   </si>
 </sst>
 </file>
@@ -522,10 +528,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A13" sqref="A13:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -670,6 +676,28 @@
       <c r="C12" s="13"/>
       <c r="D12" s="13">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>44317</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>44317</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="11">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
